--- a/biology/Botanique/Crassocephalum/Crassocephalum.xlsx
+++ b/biology/Botanique/Crassocephalum/Crassocephalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassocephalum est un genre de plantes à fleurs appartenant à la famille des Astéracées (Asteraceae). 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Crassocephalum bauchiense (Hutch.) Milne-Redh.
 Crassocephalum bougheyanum C.D. Adams
 Crassocephalum coeruleum (O. Hoffm.) R.E. Fr.
@@ -537,7 +551,7 @@
 Crassocephalum torreanum Lisowski
 Crassocephalum uvens (Hiern) S. Moore
 Crassocephalum vitellinum (Benth.) S. Moore
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Crassocephalum baoulense (A. Cheval.) Milne-Redhead
 Crassocephalum bauchiense (Hutch.) Milne-Redhead
 Crassocephalum bougheyanum C. D. Adams
@@ -564,20 +578,20 @@
 Crassocephalum torreanum S. Lisowski
 Crassocephalum uvens S Moore
 Crassocephalum vitellinum (Benth.) S. Moore
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Crassocephalum bauchiense (Hutch.) Milne-Redh.
 Crassocephalum crepidioides (Benth.) S. Moore
 Crassocephalum rubens (Juss. ex Jacq.) S. Moore
-Selon ITIS      (24 juillet 2017)[1] :
+Selon ITIS      (24 juillet 2017) :
 Crassocephalum crepidioides (Benth.) S. Moore
 Crassocephalum vitellinum (Benth.) S. Moore
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Crassocephalum crepidioides
 Crassocephalum crepidioides × Crassocephalum rubens
 Crassocephalum montuosum
 Crassocephalum rubens
 Crassocephalum vitellinum
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Crassocephalum bauchiense (Hutch.) Milne-Redh.
 Crassocephalum bougheyanum C.D.Adams
 Crassocephalum coeruleum (O.Hoffm.) R.E.Fr.
